--- a/Muon Beam Intensities.xlsx
+++ b/Muon Beam Intensities.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick Achenbach\JLab\BDX\BDX&amp;Beyond\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fduchcle\Desktop\muon_beam_intensities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87250AFD-7324-4D0B-ACBF-298879DCC176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AABCD8E3-8CEF-4DE1-AC81-05B75E10D1FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="104">
   <si>
     <t>TRIUMF</t>
   </si>
@@ -83,9 +83,6 @@
     <t>reference</t>
   </si>
   <si>
-    <t>CERN</t>
-  </si>
-  <si>
     <t>PiE5</t>
   </si>
   <si>
@@ -122,9 +119,6 @@
     <t>PSI</t>
   </si>
   <si>
-    <t>S. N. Gninenko, N. V. Krasnikov, and V. A. Matveev, Phys. Rev. D91, 095015 (2015), arXiv:1412.1400 [hep-ph</t>
-  </si>
-  <si>
     <t>surface muons</t>
   </si>
   <si>
@@ -177,9 +171,6 @@
   </si>
   <si>
     <t>doi:10.1016/j.nima.2008.11.016</t>
-  </si>
-  <si>
-    <t>A. Chapelain (2017) arXiv:1701.02807 [physics.ins-det].</t>
   </si>
   <si>
     <t>https://link.springer.com/article/10.1140/epjc/s10052-017-4633-z</t>
@@ -251,9 +242,6 @@
     <t>up to 1 E6?</t>
   </si>
   <si>
-    <t>SPS M2/COMPASS</t>
-  </si>
-  <si>
     <t>PiM1/MUSE</t>
   </si>
   <si>
@@ -297,15 +285,103 @@
   </si>
   <si>
     <t>BinContent (y - #) [mu/EOT]</t>
+  </si>
+  <si>
+    <t>MuSIC</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>muon+</t>
+  </si>
+  <si>
+    <t>muon-</t>
+  </si>
+  <si>
+    <t>https://www.isis.stfc.ac.uk/Pages/riken-ral-muon-facility-leaflet.pdf</t>
+  </si>
+  <si>
+    <t>mu-</t>
+  </si>
+  <si>
+    <t>surface mu</t>
+  </si>
+  <si>
+    <t>20-120</t>
+  </si>
+  <si>
+    <t>https://cmms.triumf.ca/intro/musr/muSR_handout.pdf</t>
+  </si>
+  <si>
+    <t>https://cmms.triumf.ca/equip/muSRbeamlines.html</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.7566/JPSCP.33.011052</t>
+  </si>
+  <si>
+    <t>https://mlfinfo.jp/en/aboutmlf/muon.html</t>
+  </si>
+  <si>
+    <t>https://www.isis.stfc.ac.uk/Pages/About.aspx</t>
+  </si>
+  <si>
+    <t>https://www.rcnp.osaka-u.ac.jp/RCNPhome/music/facilities.html</t>
+  </si>
+  <si>
+    <t>https://www.rcnp.osaka-u.ac.jp/RCNPhome/music/index.html</t>
+  </si>
+  <si>
+    <t>https://www.psi.ch/en/smus</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1051/epjconf/201713708001</t>
+  </si>
+  <si>
+    <t>https://muon-g-2.fnal.gov/</t>
+  </si>
+  <si>
+    <t>https://indico.cern.ch/event/845054/contributions/3571833/attachments/1923509/3182740/bernhard_101019.pdf</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/JHEP08(2022)185</t>
+  </si>
+  <si>
+    <t>CERN North Area</t>
+  </si>
+  <si>
+    <t>CERN East Area</t>
+  </si>
+  <si>
+    <t>T9 T10</t>
+  </si>
+  <si>
+    <t>https://indico.cern.ch/event/700446/contributions/2873562/attachments/1719056/2774358/blfs2018_beams.pdf</t>
+  </si>
+  <si>
+    <t>positron beam</t>
+  </si>
+  <si>
+    <t>200 - 12000</t>
+  </si>
+  <si>
+    <t>+/-</t>
+  </si>
+  <si>
+    <t>M2, H2, H4</t>
+  </si>
+  <si>
+    <t>+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0E+00"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -410,7 +486,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -453,10 +529,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -474,7 +556,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -774,7 +856,7 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="1"/>
+              <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
                   <c:x val="4.345499157882138E-3"/>
@@ -804,12 +886,12 @@
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-5A51-4278-8734-85C2FD1A0362}"/>
+                  <c16:uniqueId val="{00000000-5A51-4278-8734-85C2FD1A0362}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="2"/>
+              <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
                   <c:x val="1.7510944340212633E-2"/>
@@ -838,9 +920,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-5A51-4278-8734-85C2FD1A0362}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -902,17 +981,20 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$G$20:$G$22</c:f>
+              <c:f>Tabelle1!$G$25:$G$28</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="0.000">
                   <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.16</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.000">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.000">
                   <c:v>3.1</c:v>
                 </c:pt>
               </c:numCache>
@@ -920,17 +1002,20 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$H$20:$H$22</c:f>
+              <c:f>Tabelle1!$H$25:$H$28</c:f>
               <c:numCache>
-                <c:formatCode>0.0E+00</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="0.0E+00">
                   <c:v>13000000</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.0E+00">
                   <c:v>3300000</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3" formatCode="0.0E+00">
                   <c:v>10000000</c:v>
                 </c:pt>
               </c:numCache>
@@ -2903,33 +2988,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U154"/>
+  <dimension ref="A1:M154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C33" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29:J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.36328125" customWidth="1"/>
-    <col min="2" max="2" width="22.36328125" customWidth="1"/>
-    <col min="3" max="3" width="26.90625" customWidth="1"/>
-    <col min="4" max="4" width="18.6328125" customWidth="1"/>
-    <col min="5" max="5" width="17.36328125" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="26.88671875" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" customWidth="1"/>
     <col min="6" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="10.81640625" customWidth="1"/>
-    <col min="9" max="9" width="20.08984375" customWidth="1"/>
+    <col min="8" max="8" width="10.77734375" customWidth="1"/>
+    <col min="9" max="9" width="20.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
@@ -2940,27 +3025,27 @@
         <v>4</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>0</v>
@@ -2969,10 +3054,10 @@
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F3" s="15">
         <v>28</v>
@@ -2992,7 +3077,7 @@
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
         <v>0</v>
@@ -3001,16 +3086,16 @@
         <v>6</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F4" s="15">
         <v>28</v>
       </c>
       <c r="G4" s="19">
-        <f t="shared" ref="G4:G23" si="0">F4/1000</f>
+        <f t="shared" ref="G4:G22" si="0">F4/1000</f>
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="H4" s="12">
@@ -3018,13 +3103,13 @@
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
         <v>0</v>
@@ -3033,10 +3118,10 @@
         <v>7</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F5" s="15">
         <v>28</v>
@@ -3050,13 +3135,13 @@
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3" t="s">
-        <v>3</v>
+        <v>84</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
         <v>0</v>
@@ -3065,10 +3150,10 @@
         <v>8</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F6" s="15">
         <v>70</v>
@@ -3082,26 +3167,24 @@
         <v>1400000</v>
       </c>
       <c r="I6" s="3"/>
-      <c r="J6" s="16" t="s">
-        <v>3</v>
-      </c>
+      <c r="J6" s="16"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F7" s="15">
         <v>28</v>
@@ -3114,26 +3197,26 @@
         <v>500000000</v>
       </c>
       <c r="I7" s="3"/>
-      <c r="J7" s="16" t="s">
-        <v>13</v>
+      <c r="J7" s="24" t="s">
+        <v>90</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F8" s="15">
         <v>300</v>
@@ -3146,28 +3229,28 @@
         <v>1000000</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="E9" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F9" s="15">
         <v>170</v>
@@ -3185,19 +3268,19 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="E10" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F10" s="15">
         <v>28</v>
@@ -3215,19 +3298,19 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="E11" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F11" s="15">
         <v>28</v>
@@ -3245,19 +3328,19 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F12" s="15">
         <v>300</v>
@@ -3275,16 +3358,16 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E13" s="4">
         <v>30</v>
@@ -3301,22 +3384,22 @@
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E14" s="4">
         <v>60</v>
@@ -3332,25 +3415,25 @@
         <v>1000000</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="D15" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E15" s="4">
         <v>30</v>
@@ -3367,25 +3450,25 @@
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F16" s="4">
         <v>1</v>
@@ -3398,28 +3481,28 @@
         <v>10000</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="17" t="s">
         <v>37</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>39</v>
       </c>
       <c r="F17" s="4">
         <v>1</v>
@@ -3432,23 +3515,21 @@
         <v>1000000</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>42</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E18" s="4">
         <v>30</v>
@@ -3464,21 +3545,21 @@
         <v>1000000</v>
       </c>
       <c r="I18" s="3"/>
-      <c r="J18" s="3" t="s">
-        <v>42</v>
+      <c r="J18" s="24" t="s">
+        <v>87</v>
       </c>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E19" s="4">
         <v>30</v>
@@ -3494,201 +3575,327 @@
         <v>20</v>
       </c>
       <c r="I19" s="3"/>
-      <c r="J19" s="3" t="s">
-        <v>42</v>
+      <c r="J19" t="s">
+        <v>79</v>
       </c>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
     </row>
-    <row r="20" spans="1:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" t="s">
-        <v>63</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="F20" s="8">
-        <v>160000</v>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F20" s="4">
+        <v>60</v>
       </c>
       <c r="G20" s="19">
         <f t="shared" si="0"/>
-        <v>160</v>
-      </c>
-      <c r="H20" s="11">
-        <v>13000000</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="J20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F21" s="8">
-        <v>160</v>
+        <v>0.06</v>
+      </c>
+      <c r="H20" s="10">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B21" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" t="s">
+        <v>82</v>
+      </c>
+      <c r="F21" s="4">
+        <v>60</v>
       </c>
       <c r="G21" s="19">
         <f t="shared" si="0"/>
-        <v>0.16</v>
-      </c>
-      <c r="H21" s="11">
-        <v>3300000</v>
-      </c>
-      <c r="I21" t="s">
-        <v>56</v>
-      </c>
-      <c r="J21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B22" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" t="s">
-        <v>54</v>
-      </c>
-      <c r="E22" s="2">
-        <v>3100</v>
-      </c>
-      <c r="F22" s="2">
-        <v>3100</v>
+        <v>0.06</v>
+      </c>
+      <c r="H21" s="10">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B22" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" t="s">
+        <v>82</v>
+      </c>
+      <c r="F22" s="4">
+        <v>27</v>
       </c>
       <c r="G22" s="19">
         <f t="shared" si="0"/>
+        <v>2.7E-2</v>
+      </c>
+      <c r="H22" s="10">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B23" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="4">
+        <v>80</v>
+      </c>
+      <c r="F23" s="4">
+        <v>29</v>
+      </c>
+      <c r="G23" s="19">
+        <f t="shared" ref="G23:G28" si="1">F23/1000</f>
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="H23" s="10">
+        <v>100000</v>
+      </c>
+      <c r="J23" s="24" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B24" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" s="4">
+        <v>80</v>
+      </c>
+      <c r="F24" s="4">
+        <v>60</v>
+      </c>
+      <c r="G24" s="19">
+        <f t="shared" si="1"/>
+        <v>0.06</v>
+      </c>
+      <c r="H24" s="10">
+        <v>20000</v>
+      </c>
+      <c r="J24" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" t="s">
+        <v>102</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25" s="8">
+        <v>160000</v>
+      </c>
+      <c r="G25" s="19">
+        <f t="shared" si="1"/>
+        <v>160</v>
+      </c>
+      <c r="H25" s="11">
+        <v>13000000</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J25" t="s">
+        <v>93</v>
+      </c>
+      <c r="K25" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B26" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" t="s">
+        <v>97</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="E26" t="s">
+        <v>100</v>
+      </c>
+      <c r="F26" s="15">
+        <v>12000</v>
+      </c>
+      <c r="G26" s="25">
+        <v>12</v>
+      </c>
+      <c r="H26" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="I26" t="s">
+        <v>99</v>
+      </c>
+      <c r="J26" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" s="8">
+        <v>160000</v>
+      </c>
+      <c r="G27" s="19">
+        <f>F27/1000</f>
+        <v>160</v>
+      </c>
+      <c r="H27" s="11">
+        <v>3300000</v>
+      </c>
+      <c r="I27" t="s">
+        <v>53</v>
+      </c>
+      <c r="J27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" t="s">
+        <v>103</v>
+      </c>
+      <c r="E28" s="2">
+        <v>3100</v>
+      </c>
+      <c r="F28" s="2">
+        <v>3100</v>
+      </c>
+      <c r="G28" s="19">
+        <f>F28/1000</f>
         <v>3.1</v>
       </c>
-      <c r="H22" s="11">
+      <c r="H28" s="11">
         <v>10000000</v>
       </c>
-      <c r="I22" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C23" t="s">
-        <v>67</v>
-      </c>
-      <c r="E23" s="4">
+      <c r="I28" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J28" t="s">
+        <v>91</v>
+      </c>
+      <c r="K28" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="E29" s="4">
         <v>5000</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F29" s="4">
         <v>235</v>
       </c>
-      <c r="G23" s="19">
-        <f t="shared" si="0"/>
+      <c r="G29" s="19">
+        <f>F29/1000</f>
         <v>0.23499999999999999</v>
       </c>
-      <c r="H23" s="12">
+      <c r="H29" s="12">
         <v>100000000</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="F24" s="8"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="10"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B25" t="s">
-        <v>52</v>
-      </c>
-      <c r="F25" s="8"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="10"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B26" t="s">
-        <v>44</v>
-      </c>
-      <c r="F26" s="8"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="10"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B27" t="s">
-        <v>53</v>
-      </c>
-      <c r="F27" s="8"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="10"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="F28" s="8"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="10"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="F29" s="8"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="10"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>49</v>
+      </c>
       <c r="F30" s="8"/>
       <c r="G30" s="19"/>
       <c r="H30" s="11"/>
       <c r="I30" s="10"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B31" s="24" t="s">
+        <v>41</v>
+      </c>
       <c r="F31" s="8"/>
       <c r="G31" s="19"/>
       <c r="H31" s="11"/>
       <c r="I31" s="10"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="H32" s="18"/>
-    </row>
-    <row r="45" spans="5:21" x14ac:dyDescent="0.35">
-      <c r="U45" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="5:21" x14ac:dyDescent="0.35">
+      <c r="J31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>50</v>
+      </c>
+      <c r="F32" s="8"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="10"/>
+    </row>
+    <row r="46" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E46" s="6"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c r="H46" s="10"/>
     </row>
-    <row r="51" spans="6:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="6:9" x14ac:dyDescent="0.3">
       <c r="G51">
         <v>0.1057</v>
       </c>
     </row>
-    <row r="53" spans="6:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F53" s="20">
         <v>3</v>
       </c>
@@ -3704,1593 +3911,1593 @@
         <v>2.304E-5</v>
       </c>
     </row>
-    <row r="54" spans="6:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F54" s="22">
         <v>9</v>
       </c>
       <c r="G54">
-        <f t="shared" ref="G54:G117" si="1">SQRT((F54/100+$G$51)^2-($G$51)^2)</f>
+        <f t="shared" ref="G54:G117" si="2">SQRT((F54/100+$G$51)^2-($G$51)^2)</f>
         <v>0.16469972677572964</v>
       </c>
       <c r="H54" s="11">
-        <f t="shared" ref="H54:H117" si="2">I54*0.00005/1.6E-19/1000</f>
+        <f t="shared" ref="H54:H117" si="3">I54*0.00005/1.6E-19/1000</f>
         <v>8500000.0000000019</v>
       </c>
       <c r="I54" s="23">
         <v>2.72E-5</v>
       </c>
     </row>
-    <row r="55" spans="6:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F55" s="20">
         <v>15</v>
       </c>
       <c r="G55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.23283041038489793</v>
       </c>
       <c r="H55" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11053125.000000002</v>
       </c>
       <c r="I55" s="21">
         <v>3.5370000000000002E-5</v>
       </c>
     </row>
-    <row r="56" spans="6:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F56" s="22">
         <v>21</v>
       </c>
       <c r="G56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.29747941105226089</v>
       </c>
       <c r="H56" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11409375.000000002</v>
       </c>
       <c r="I56" s="23">
         <v>3.6510000000000001E-5</v>
       </c>
     </row>
-    <row r="57" spans="6:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F57" s="20">
         <v>27</v>
       </c>
       <c r="G57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.36052461774475264</v>
       </c>
       <c r="H57" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11225000.000000002</v>
       </c>
       <c r="I57" s="21">
         <v>3.5920000000000002E-5</v>
       </c>
     </row>
-    <row r="58" spans="6:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F58" s="22">
         <v>33</v>
       </c>
       <c r="G58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.42268427933860991</v>
       </c>
       <c r="H58" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11118750.000000002</v>
       </c>
       <c r="I58" s="23">
         <v>3.5580000000000002E-5</v>
       </c>
     </row>
-    <row r="59" spans="6:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F59" s="20">
         <v>39</v>
       </c>
       <c r="G59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.48429949411495365</v>
       </c>
       <c r="H59" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10906250.000000002</v>
       </c>
       <c r="I59" s="21">
         <v>3.4900000000000001E-5</v>
       </c>
     </row>
-    <row r="60" spans="6:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F60" s="22">
         <v>45</v>
       </c>
       <c r="G60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.54555476352058374</v>
       </c>
       <c r="H60" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10506250.000000002</v>
       </c>
       <c r="I60" s="23">
         <v>3.362E-5</v>
       </c>
     </row>
-    <row r="61" spans="6:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F61" s="20">
         <v>51</v>
       </c>
       <c r="G61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.60655914798146449</v>
       </c>
       <c r="H61" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10221875</v>
       </c>
       <c r="I61" s="21">
         <v>3.2709999999999997E-5</v>
       </c>
     </row>
-    <row r="62" spans="6:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F62" s="22">
         <v>57</v>
       </c>
       <c r="G62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.66738145014676575</v>
       </c>
       <c r="H62" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10090625</v>
       </c>
       <c r="I62" s="23">
         <v>3.2289999999999997E-5</v>
       </c>
     </row>
-    <row r="63" spans="6:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F63" s="20">
         <v>63</v>
       </c>
       <c r="G63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.72806730458110813</v>
       </c>
       <c r="H63" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9850000.0000000019</v>
       </c>
       <c r="I63" s="21">
         <v>3.1520000000000003E-5</v>
       </c>
     </row>
-    <row r="64" spans="6:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F64" s="22">
         <v>69</v>
       </c>
       <c r="G64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.78864821054764334</v>
       </c>
       <c r="H64" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9565625</v>
       </c>
       <c r="I64" s="23">
         <v>3.061E-5</v>
       </c>
     </row>
-    <row r="65" spans="6:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F65" s="20">
         <v>75</v>
       </c>
       <c r="G65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.84914663044729799</v>
       </c>
       <c r="H65" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9387500.0000000019</v>
       </c>
       <c r="I65" s="21">
         <v>3.004E-5</v>
       </c>
     </row>
-    <row r="66" spans="6:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F66" s="22">
         <v>81</v>
       </c>
       <c r="G66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.90957902350483</v>
       </c>
       <c r="H66" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9171875</v>
       </c>
       <c r="I66" s="23">
         <v>2.9349999999999999E-5</v>
       </c>
     </row>
-    <row r="67" spans="6:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F67" s="20">
         <v>87</v>
       </c>
       <c r="G67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.96995773103780147</v>
       </c>
       <c r="H67" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8890625</v>
       </c>
       <c r="I67" s="21">
         <v>2.845E-5</v>
       </c>
     </row>
-    <row r="68" spans="6:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F68" s="22">
         <v>93</v>
       </c>
       <c r="G68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0302921915650918</v>
       </c>
       <c r="H68" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8612500</v>
       </c>
       <c r="I68" s="23">
         <v>2.756E-5</v>
       </c>
     </row>
-    <row r="69" spans="6:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F69" s="20">
         <v>99</v>
       </c>
       <c r="G69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0905897487139697</v>
       </c>
       <c r="H69" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8409375.0000000019</v>
       </c>
       <c r="I69" s="21">
         <v>2.6910000000000002E-5</v>
       </c>
     </row>
-    <row r="70" spans="6:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F70" s="22">
         <v>105</v>
       </c>
       <c r="G70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.150856203007135</v>
       </c>
       <c r="H70" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7971875.0000000019</v>
       </c>
       <c r="I70" s="23">
         <v>2.5510000000000001E-5</v>
       </c>
     </row>
-    <row r="71" spans="6:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F71" s="20">
         <v>111</v>
       </c>
       <c r="G71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2110961976655694</v>
       </c>
       <c r="H71" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7740625.0000000009</v>
       </c>
       <c r="I71" s="21">
         <v>2.4769999999999998E-5</v>
       </c>
     </row>
-    <row r="72" spans="6:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F72" s="22">
         <v>117</v>
       </c>
       <c r="G72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2713134939895823</v>
       </c>
       <c r="H72" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7528125.0000000009</v>
       </c>
       <c r="I72" s="23">
         <v>2.4090000000000001E-5</v>
       </c>
     </row>
-    <row r="73" spans="6:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F73" s="20">
         <v>123</v>
       </c>
       <c r="G73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.331511171564099</v>
       </c>
       <c r="H73" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7206250.0000000009</v>
       </c>
       <c r="I73" s="21">
         <v>2.3059999999999999E-5</v>
       </c>
     </row>
-    <row r="74" spans="6:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F74" s="22">
         <v>129</v>
       </c>
       <c r="G74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3916917762205825</v>
       </c>
       <c r="H74" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6971875.0000000009</v>
       </c>
       <c r="I74" s="23">
         <v>2.2310000000000002E-5</v>
       </c>
     </row>
-    <row r="75" spans="6:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F75" s="20">
         <v>135</v>
       </c>
       <c r="G75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.451857431017247</v>
       </c>
       <c r="H75" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6668750</v>
       </c>
       <c r="I75" s="21">
         <v>2.1339999999999999E-5</v>
       </c>
     </row>
-    <row r="76" spans="6:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F76" s="22">
         <v>141</v>
       </c>
       <c r="G76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5120099206023747</v>
       </c>
       <c r="H76" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6421875</v>
       </c>
       <c r="I76" s="23">
         <v>2.0550000000000001E-5</v>
       </c>
     </row>
-    <row r="77" spans="6:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F77" s="20">
         <v>147</v>
       </c>
       <c r="G77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5721507561299584</v>
       </c>
       <c r="H77" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6290625</v>
       </c>
       <c r="I77" s="21">
         <v>2.0129999999999999E-5</v>
       </c>
     </row>
-    <row r="78" spans="6:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F78" s="22">
         <v>153</v>
       </c>
       <c r="G78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.6322812257696282</v>
       </c>
       <c r="H78" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6128125.0000000009</v>
       </c>
       <c r="I78" s="23">
         <v>1.961E-5</v>
       </c>
     </row>
-    <row r="79" spans="6:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F79" s="20">
         <v>159</v>
       </c>
       <c r="G79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.6924024344109174</v>
       </c>
       <c r="H79" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5975000</v>
       </c>
       <c r="I79" s="21">
         <v>1.912E-5</v>
       </c>
     </row>
-    <row r="80" spans="6:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F80" s="22">
         <v>165</v>
       </c>
       <c r="G80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.7525153351682832</v>
       </c>
       <c r="H80" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5690625</v>
       </c>
       <c r="I80" s="23">
         <v>1.821E-5</v>
       </c>
     </row>
-    <row r="81" spans="6:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F81" s="20">
         <v>171</v>
       </c>
       <c r="G81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.8126207545981592</v>
       </c>
       <c r="H81" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5500000.0000000009</v>
       </c>
       <c r="I81" s="21">
         <v>1.7600000000000001E-5</v>
       </c>
     </row>
-    <row r="82" spans="6:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F82" s="22">
         <v>177</v>
       </c>
       <c r="G82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.8727194130461722</v>
       </c>
       <c r="H82" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5418750</v>
       </c>
       <c r="I82" s="23">
         <v>1.734E-5</v>
       </c>
     </row>
-    <row r="83" spans="6:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F83" s="20">
         <v>183</v>
       </c>
       <c r="G83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.9328119411882783</v>
       </c>
       <c r="H83" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5343750</v>
       </c>
       <c r="I83" s="21">
         <v>1.7099999999999999E-5</v>
       </c>
     </row>
-    <row r="84" spans="6:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F84" s="22">
         <v>189</v>
       </c>
       <c r="G84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.9928988935718739</v>
       </c>
       <c r="H84" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4956250.0000000009</v>
       </c>
       <c r="I84" s="23">
         <v>1.5860000000000001E-5</v>
       </c>
     </row>
-    <row r="85" spans="6:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F85" s="20">
         <v>195</v>
       </c>
       <c r="G85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.0529807597734568</v>
       </c>
       <c r="H85" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4881250</v>
       </c>
       <c r="I85" s="21">
         <v>1.562E-5</v>
       </c>
     </row>
-    <row r="86" spans="6:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F86" s="22">
         <v>201</v>
       </c>
       <c r="G86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.1130579736486172</v>
       </c>
       <c r="H86" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4709375</v>
       </c>
       <c r="I86" s="23">
         <v>1.507E-5</v>
       </c>
     </row>
-    <row r="87" spans="6:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F87" s="20">
         <v>207</v>
       </c>
       <c r="G87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.1731309210445651</v>
       </c>
       <c r="H87" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4356250.0000000009</v>
       </c>
       <c r="I87" s="21">
         <v>1.394E-5</v>
       </c>
     </row>
-    <row r="88" spans="6:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F88" s="22">
         <v>213</v>
       </c>
       <c r="G88">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.2331999462654482</v>
       </c>
       <c r="H88" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4184375.0000000005</v>
       </c>
       <c r="I88" s="23">
         <v>1.3390000000000001E-5</v>
       </c>
     </row>
-    <row r="89" spans="6:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F89" s="20">
         <v>219</v>
       </c>
       <c r="G89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.2932653575197093</v>
       </c>
       <c r="H89" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4012500.0000000005</v>
       </c>
       <c r="I89" s="21">
         <v>1.2840000000000001E-5</v>
       </c>
     </row>
-    <row r="90" spans="6:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F90" s="22">
         <v>225</v>
       </c>
       <c r="G90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.3533274315317878</v>
       </c>
       <c r="H90" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3896875</v>
       </c>
       <c r="I90" s="23">
         <v>1.2469999999999999E-5</v>
       </c>
     </row>
-    <row r="91" spans="6:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F91" s="20">
         <v>231</v>
       </c>
       <c r="G91">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.413386417464058</v>
       </c>
       <c r="H91" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3703125.0000000005</v>
       </c>
       <c r="I91" s="21">
         <v>1.185E-5</v>
       </c>
     </row>
-    <row r="92" spans="6:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F92" s="22">
         <v>237</v>
       </c>
       <c r="G92">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.4734425402665008</v>
       </c>
       <c r="H92" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3559375</v>
       </c>
       <c r="I92" s="23">
         <v>1.1389999999999999E-5</v>
       </c>
     </row>
-    <row r="93" spans="6:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F93" s="20">
         <v>243</v>
       </c>
       <c r="G93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.5334960035492462</v>
       </c>
       <c r="H93" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3362500</v>
       </c>
       <c r="I93" s="21">
         <v>1.076E-5</v>
       </c>
     </row>
-    <row r="94" spans="6:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F94" s="22">
         <v>249</v>
       </c>
       <c r="G94">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.593546992055475</v>
       </c>
       <c r="H94" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3256250.0000000005</v>
       </c>
       <c r="I94" s="23">
         <v>1.042E-5</v>
       </c>
     </row>
-    <row r="95" spans="6:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F95" s="20">
         <v>255</v>
       </c>
       <c r="G95">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.6535956737981015</v>
       </c>
       <c r="H95" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3221875.0000000005</v>
       </c>
       <c r="I95" s="21">
         <v>1.031E-5</v>
       </c>
     </row>
-    <row r="96" spans="6:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F96" s="22">
         <v>261</v>
       </c>
       <c r="G96">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.7136422019124038</v>
       </c>
       <c r="H96" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3037187.5</v>
       </c>
       <c r="I96" s="23">
         <v>9.7189999999999996E-6</v>
       </c>
     </row>
-    <row r="97" spans="6:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F97" s="20">
         <v>267</v>
       </c>
       <c r="G97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.7736867162677186</v>
       </c>
       <c r="H97" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2992187.5000000005</v>
       </c>
       <c r="I97" s="21">
         <v>9.5750000000000007E-6</v>
       </c>
     </row>
-    <row r="98" spans="6:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F98" s="22">
         <v>273</v>
       </c>
       <c r="G98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.8337293448739951</v>
       </c>
       <c r="H98" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2810625.0000000005</v>
       </c>
       <c r="I98" s="23">
         <v>8.9940000000000006E-6</v>
       </c>
     </row>
-    <row r="99" spans="6:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F99" s="20">
         <v>279</v>
       </c>
       <c r="G99">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.8937702051130461</v>
       </c>
       <c r="H99" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2685625</v>
       </c>
       <c r="I99" s="21">
         <v>8.5939999999999994E-6</v>
       </c>
     </row>
-    <row r="100" spans="6:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F100" s="22">
         <v>285</v>
       </c>
       <c r="G100">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.9538094048194785</v>
       </c>
       <c r="H100" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2522500.0000000005</v>
       </c>
       <c r="I100" s="23">
         <v>8.072E-6</v>
       </c>
     </row>
-    <row r="101" spans="6:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F101" s="20">
         <v>291</v>
       </c>
       <c r="G101">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.0138470432322872</v>
       </c>
       <c r="H101" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2385312.5000000005</v>
       </c>
       <c r="I101" s="21">
         <v>7.6329999999999996E-6</v>
       </c>
     </row>
-    <row r="102" spans="6:9" x14ac:dyDescent="0.35">
+    <row r="102" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F102" s="22">
         <v>297</v>
       </c>
       <c r="G102">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.0738832118348287</v>
       </c>
       <c r="H102" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2284062.5</v>
       </c>
       <c r="I102" s="23">
         <v>7.3089999999999998E-6</v>
       </c>
     </row>
-    <row r="103" spans="6:9" x14ac:dyDescent="0.35">
+    <row r="103" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F103" s="20">
         <v>303</v>
       </c>
       <c r="G103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.1339179950981486</v>
       </c>
       <c r="H103" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2177187.5000000005</v>
       </c>
       <c r="I103" s="21">
         <v>6.9670000000000004E-6</v>
       </c>
     </row>
-    <row r="104" spans="6:9" x14ac:dyDescent="0.35">
+    <row r="104" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F104" s="22">
         <v>309</v>
       </c>
       <c r="G104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.1939514711404118</v>
       </c>
       <c r="H104" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2059062.5000000002</v>
       </c>
       <c r="I104" s="23">
         <v>6.5889999999999999E-6</v>
       </c>
     </row>
-    <row r="105" spans="6:9" x14ac:dyDescent="0.35">
+    <row r="105" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F105" s="20">
         <v>315</v>
       </c>
       <c r="G105">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.2539837123132624</v>
       </c>
       <c r="H105" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1988125.0000000002</v>
       </c>
       <c r="I105" s="21">
         <v>6.3620000000000002E-6</v>
       </c>
     </row>
-    <row r="106" spans="6:9" x14ac:dyDescent="0.35">
+    <row r="106" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F106" s="22">
         <v>321</v>
       </c>
       <c r="G106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.3140147857244089</v>
       </c>
       <c r="H106" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1914687.5000000002</v>
       </c>
       <c r="I106" s="23">
         <v>6.127E-6</v>
       </c>
     </row>
-    <row r="107" spans="6:9" x14ac:dyDescent="0.35">
+    <row r="107" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F107" s="20">
         <v>327</v>
       </c>
       <c r="G107">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.3740447537043727</v>
       </c>
       <c r="H107" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1755312.5000000002</v>
       </c>
       <c r="I107" s="21">
         <v>5.6169999999999998E-6</v>
       </c>
     </row>
-    <row r="108" spans="6:9" x14ac:dyDescent="0.35">
+    <row r="108" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F108" s="22">
         <v>333</v>
       </c>
       <c r="G108">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.4340736742242441</v>
       </c>
       <c r="H108" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1675625</v>
       </c>
       <c r="I108" s="23">
         <v>5.3619999999999997E-6</v>
       </c>
     </row>
-    <row r="109" spans="6:9" x14ac:dyDescent="0.35">
+    <row r="109" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F109" s="20">
         <v>339</v>
       </c>
       <c r="G109">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.494101601270347</v>
       </c>
       <c r="H109" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1563125</v>
       </c>
       <c r="I109" s="21">
         <v>5.0019999999999997E-6</v>
       </c>
     </row>
-    <row r="110" spans="6:9" x14ac:dyDescent="0.35">
+    <row r="110" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F110" s="22">
         <v>345</v>
       </c>
       <c r="G110">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.5541285851809024</v>
       </c>
       <c r="H110" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1452812.5000000002</v>
       </c>
       <c r="I110" s="23">
         <v>4.6489999999999999E-6</v>
       </c>
     </row>
-    <row r="111" spans="6:9" x14ac:dyDescent="0.35">
+    <row r="111" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F111" s="20">
         <v>351</v>
       </c>
       <c r="G111">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.6141546729491254</v>
       </c>
       <c r="H111" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1362500</v>
       </c>
       <c r="I111" s="21">
         <v>4.3599999999999998E-6</v>
       </c>
     </row>
-    <row r="112" spans="6:9" x14ac:dyDescent="0.35">
+    <row r="112" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F112" s="22">
         <v>357</v>
       </c>
       <c r="G112">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.6741799084965887</v>
       </c>
       <c r="H112" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1280000.0000000002</v>
       </c>
       <c r="I112" s="23">
         <v>4.0960000000000003E-6</v>
       </c>
     </row>
-    <row r="113" spans="6:9" x14ac:dyDescent="0.35">
+    <row r="113" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F113" s="20">
         <v>363</v>
       </c>
       <c r="G113">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.7342043329202004</v>
       </c>
       <c r="H113" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1210312.5</v>
       </c>
       <c r="I113" s="21">
         <v>3.873E-6</v>
       </c>
     </row>
-    <row r="114" spans="6:9" x14ac:dyDescent="0.35">
+    <row r="114" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F114" s="22">
         <v>369</v>
       </c>
       <c r="G114">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.7942279847157314</v>
       </c>
       <c r="H114" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1116250</v>
       </c>
       <c r="I114" s="23">
         <v>3.5719999999999999E-6</v>
       </c>
     </row>
-    <row r="115" spans="6:9" x14ac:dyDescent="0.35">
+    <row r="115" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F115" s="20">
         <v>375</v>
       </c>
       <c r="G115">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.8542508999804359</v>
       </c>
       <c r="H115" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1061562.5</v>
       </c>
       <c r="I115" s="21">
         <v>3.3969999999999998E-6</v>
       </c>
     </row>
-    <row r="116" spans="6:9" x14ac:dyDescent="0.35">
+    <row r="116" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F116" s="22">
         <v>381</v>
       </c>
       <c r="G116">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.9142731125970247</v>
       </c>
       <c r="H116" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>991562.50000000012</v>
       </c>
       <c r="I116" s="23">
         <v>3.1729999999999999E-6</v>
       </c>
     </row>
-    <row r="117" spans="6:9" x14ac:dyDescent="0.35">
+    <row r="117" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F117" s="20">
         <v>387</v>
       </c>
       <c r="G117">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.9742946544009543</v>
       </c>
       <c r="H117" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>937187.50000000012</v>
       </c>
       <c r="I117" s="21">
         <v>2.999E-6</v>
       </c>
     </row>
-    <row r="118" spans="6:9" x14ac:dyDescent="0.35">
+    <row r="118" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F118" s="22">
         <v>393</v>
       </c>
       <c r="G118">
-        <f t="shared" ref="G118:G152" si="3">SQRT((F118/100+$G$51)^2-($G$51)^2)</f>
+        <f t="shared" ref="G118:G152" si="4">SQRT((F118/100+$G$51)^2-($G$51)^2)</f>
         <v>4.0343155553327756</v>
       </c>
       <c r="H118" s="11">
-        <f t="shared" ref="H118:H152" si="4">I118*0.00005/1.6E-19/1000</f>
+        <f t="shared" ref="H118:H152" si="5">I118*0.00005/1.6E-19/1000</f>
         <v>850625</v>
       </c>
       <c r="I118" s="23">
         <v>2.7219999999999999E-6</v>
       </c>
     </row>
-    <row r="119" spans="6:9" x14ac:dyDescent="0.35">
+    <row r="119" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F119" s="20">
         <v>399</v>
       </c>
       <c r="G119">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.0943358435770749</v>
       </c>
       <c r="H119" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>795312.50000000023</v>
       </c>
       <c r="I119" s="21">
         <v>2.5450000000000002E-6</v>
       </c>
     </row>
-    <row r="120" spans="6:9" x14ac:dyDescent="0.35">
+    <row r="120" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F120" s="22">
         <v>405</v>
       </c>
       <c r="G120">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.1543555456893664</v>
       </c>
       <c r="H120" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>728125.00000000012</v>
       </c>
       <c r="I120" s="23">
         <v>2.3300000000000001E-6</v>
       </c>
     </row>
-    <row r="121" spans="6:9" x14ac:dyDescent="0.35">
+    <row r="121" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F121" s="20">
         <v>411</v>
       </c>
       <c r="G121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.2143746867121346</v>
       </c>
       <c r="H121" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>676562.5</v>
       </c>
       <c r="I121" s="21">
         <v>2.165E-6</v>
       </c>
     </row>
-    <row r="122" spans="6:9" x14ac:dyDescent="0.35">
+    <row r="122" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F122" s="22">
         <v>417</v>
       </c>
       <c r="G122">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.2743932902810888</v>
       </c>
       <c r="H122" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>617187.50000000012</v>
       </c>
       <c r="I122" s="23">
         <v>1.9750000000000001E-6</v>
       </c>
     </row>
-    <row r="123" spans="6:9" x14ac:dyDescent="0.35">
+    <row r="123" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F123" s="20">
         <v>423</v>
       </c>
       <c r="G123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.3344113787226055</v>
       </c>
       <c r="H123" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>562500</v>
       </c>
       <c r="I123" s="21">
         <v>1.7999999999999999E-6</v>
       </c>
     </row>
-    <row r="124" spans="6:9" x14ac:dyDescent="0.35">
+    <row r="124" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F124" s="22">
         <v>429</v>
       </c>
       <c r="G124">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.3944289731431541</v>
       </c>
       <c r="H124" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>511562.50000000006</v>
       </c>
       <c r="I124" s="23">
         <v>1.637E-6</v>
       </c>
     </row>
-    <row r="125" spans="6:9" x14ac:dyDescent="0.35">
+    <row r="125" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F125" s="20">
         <v>435</v>
       </c>
       <c r="G125">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.4544460935115149</v>
       </c>
       <c r="H125" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>476875.00000000012</v>
       </c>
       <c r="I125" s="21">
         <v>1.5260000000000001E-6</v>
       </c>
     </row>
-    <row r="126" spans="6:9" x14ac:dyDescent="0.35">
+    <row r="126" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F126" s="22">
         <v>441</v>
       </c>
       <c r="G126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.514462758734421</v>
       </c>
       <c r="H126" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>407812.50000000006</v>
       </c>
       <c r="I126" s="23">
         <v>1.305E-6</v>
       </c>
     </row>
-    <row r="127" spans="6:9" x14ac:dyDescent="0.35">
+    <row r="127" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F127" s="20">
         <v>447</v>
       </c>
       <c r="G127">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.5744789867262474</v>
       </c>
       <c r="H127" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>389687.50000000006</v>
       </c>
       <c r="I127" s="21">
         <v>1.2470000000000001E-6</v>
       </c>
     </row>
-    <row r="128" spans="6:9" x14ac:dyDescent="0.35">
+    <row r="128" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F128" s="22">
         <v>453</v>
       </c>
       <c r="G128">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.6344947944732873</v>
       </c>
       <c r="H128" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>349062.50000000006</v>
       </c>
       <c r="I128" s="23">
         <v>1.1170000000000001E-6</v>
       </c>
     </row>
-    <row r="129" spans="6:9" x14ac:dyDescent="0.35">
+    <row r="129" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F129" s="20">
         <v>459</v>
       </c>
       <c r="G129">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.694510198093087</v>
       </c>
       <c r="H129" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>309562.50000000006</v>
       </c>
       <c r="I129" s="21">
         <v>9.906000000000001E-7</v>
       </c>
     </row>
-    <row r="130" spans="6:9" x14ac:dyDescent="0.35">
+    <row r="130" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F130" s="22">
         <v>465</v>
       </c>
       <c r="G130">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.7545252128892956</v>
       </c>
       <c r="H130" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>270156.25000000006</v>
       </c>
       <c r="I130" s="23">
         <v>8.6450000000000005E-7</v>
       </c>
     </row>
-    <row r="131" spans="6:9" x14ac:dyDescent="0.35">
+    <row r="131" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F131" s="20">
         <v>471</v>
       </c>
       <c r="G131">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.8145398534023993</v>
       </c>
       <c r="H131" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>246562.50000000003</v>
       </c>
       <c r="I131" s="21">
         <v>7.8899999999999998E-7</v>
       </c>
     </row>
-    <row r="132" spans="6:9" x14ac:dyDescent="0.35">
+    <row r="132" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F132" s="22">
         <v>477</v>
       </c>
       <c r="G132">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.8745541334567202</v>
       </c>
       <c r="H132" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>213312.50000000003</v>
       </c>
       <c r="I132" s="23">
         <v>6.8260000000000004E-7</v>
       </c>
     </row>
-    <row r="133" spans="6:9" x14ac:dyDescent="0.35">
+    <row r="133" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F133" s="20">
         <v>483</v>
       </c>
       <c r="G133">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.9345680662039708</v>
       </c>
       <c r="H133" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>183343.75000000003</v>
       </c>
       <c r="I133" s="21">
         <v>5.8670000000000003E-7</v>
       </c>
     </row>
-    <row r="134" spans="6:9" x14ac:dyDescent="0.35">
+    <row r="134" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F134" s="22">
         <v>489</v>
       </c>
       <c r="G134">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.9945816641636753</v>
       </c>
       <c r="H134" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>153593.75</v>
       </c>
       <c r="I134" s="23">
         <v>4.9149999999999997E-7</v>
       </c>
     </row>
-    <row r="135" spans="6:9" x14ac:dyDescent="0.35">
+    <row r="135" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F135" s="20">
         <v>495</v>
       </c>
       <c r="G135">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.0545949392607117</v>
       </c>
       <c r="H135" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>126812.50000000001</v>
       </c>
       <c r="I135" s="21">
         <v>4.0579999999999999E-7</v>
       </c>
     </row>
-    <row r="136" spans="6:9" x14ac:dyDescent="0.35">
+    <row r="136" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F136" s="22">
         <v>501</v>
       </c>
       <c r="G136">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.1146079028601985</v>
       </c>
       <c r="H136" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>115031.25000000003</v>
       </c>
       <c r="I136" s="23">
         <v>3.6810000000000002E-7</v>
       </c>
     </row>
-    <row r="137" spans="6:9" x14ac:dyDescent="0.35">
+    <row r="137" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F137" s="20">
         <v>507</v>
       </c>
       <c r="G137">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.1746205657999695</v>
       </c>
       <c r="H137" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>99218.75</v>
       </c>
       <c r="I137" s="21">
         <v>3.1749999999999998E-7</v>
       </c>
     </row>
-    <row r="138" spans="6:9" x14ac:dyDescent="0.35">
+    <row r="138" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F138" s="22">
         <v>513</v>
       </c>
       <c r="G138">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.2346329384208019</v>
       </c>
       <c r="H138" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>76812.5</v>
       </c>
       <c r="I138" s="23">
         <v>2.4579999999999999E-7</v>
       </c>
     </row>
-    <row r="139" spans="6:9" x14ac:dyDescent="0.35">
+    <row r="139" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F139" s="20">
         <v>519</v>
       </c>
       <c r="G139">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.2946450305945909</v>
       </c>
       <c r="H139" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>64531.250000000007</v>
       </c>
       <c r="I139" s="21">
         <v>2.065E-7</v>
       </c>
     </row>
-    <row r="140" spans="6:9" x14ac:dyDescent="0.35">
+    <row r="140" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F140" s="22">
         <v>525</v>
       </c>
       <c r="G140">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.354656851750633</v>
       </c>
       <c r="H140" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>48968.75</v>
       </c>
       <c r="I140" s="23">
         <v>1.5669999999999999E-7</v>
       </c>
     </row>
-    <row r="141" spans="6:9" x14ac:dyDescent="0.35">
+    <row r="141" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F141" s="20">
         <v>531</v>
       </c>
       <c r="G141">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.4146684109001537</v>
       </c>
       <c r="H141" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>37156.25</v>
       </c>
       <c r="I141" s="21">
         <v>1.189E-7</v>
       </c>
     </row>
-    <row r="142" spans="6:9" x14ac:dyDescent="0.35">
+    <row r="142" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F142" s="22">
         <v>537</v>
       </c>
       <c r="G142">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.4746797166592307</v>
       </c>
       <c r="H142" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>31375</v>
       </c>
       <c r="I142" s="23">
         <v>1.004E-7</v>
       </c>
     </row>
-    <row r="143" spans="6:9" x14ac:dyDescent="0.35">
+    <row r="143" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F143" s="20">
         <v>543</v>
       </c>
       <c r="G143">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.5346907772702165</v>
       </c>
       <c r="H143" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>21118.75</v>
       </c>
       <c r="I143" s="21">
         <v>6.758E-8</v>
       </c>
     </row>
-    <row r="144" spans="6:9" x14ac:dyDescent="0.35">
+    <row r="144" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F144" s="22">
         <v>549</v>
       </c>
       <c r="G144">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.5947016006217885</v>
       </c>
       <c r="H144" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>13921.875</v>
       </c>
       <c r="I144" s="23">
         <v>4.4549999999999999E-8</v>
       </c>
     </row>
-    <row r="145" spans="6:9" x14ac:dyDescent="0.35">
+    <row r="145" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F145" s="20">
         <v>555</v>
       </c>
       <c r="G145">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.6547121942677148</v>
       </c>
       <c r="H145" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7787.5000000000009</v>
       </c>
       <c r="I145" s="21">
         <v>2.4920000000000001E-8</v>
       </c>
     </row>
-    <row r="146" spans="6:9" x14ac:dyDescent="0.35">
+    <row r="146" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F146" s="22">
         <v>561</v>
       </c>
       <c r="G146">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.7147225654444505</v>
       </c>
       <c r="H146" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6959.3750000000009</v>
       </c>
       <c r="I146" s="23">
         <v>2.227E-8</v>
       </c>
     </row>
-    <row r="147" spans="6:9" x14ac:dyDescent="0.35">
+    <row r="147" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F147" s="20">
         <v>567</v>
       </c>
       <c r="G147">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.7747327210876174</v>
       </c>
       <c r="H147" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3067.1875</v>
       </c>
       <c r="I147" s="21">
         <v>9.8150000000000005E-9</v>
       </c>
     </row>
-    <row r="148" spans="6:9" x14ac:dyDescent="0.35">
+    <row r="148" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F148" s="22">
         <v>573</v>
       </c>
       <c r="G148">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.834742667847487</v>
       </c>
       <c r="H148" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2005.6250000000002</v>
       </c>
       <c r="I148" s="23">
         <v>6.418E-9</v>
       </c>
     </row>
-    <row r="149" spans="6:9" x14ac:dyDescent="0.35">
+    <row r="149" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F149" s="20">
         <v>579</v>
       </c>
       <c r="G149">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.8947524121034975</v>
       </c>
       <c r="H149" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>590.00000000000011</v>
       </c>
       <c r="I149" s="21">
         <v>1.8880000000000001E-9</v>
       </c>
     </row>
-    <row r="150" spans="6:9" x14ac:dyDescent="0.35">
+    <row r="150" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F150" s="22">
         <v>585</v>
       </c>
       <c r="G150">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.9547619599779127</v>
       </c>
       <c r="H150" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>235.93750000000003</v>
       </c>
       <c r="I150" s="23">
         <v>7.5499999999999998E-10</v>
       </c>
     </row>
-    <row r="151" spans="6:9" x14ac:dyDescent="0.35">
+    <row r="151" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F151" s="20">
         <v>591</v>
       </c>
       <c r="G151">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.0147713173486483</v>
       </c>
       <c r="H151" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I151" s="21">
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="6:9" x14ac:dyDescent="0.35">
+    <row r="152" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F152" s="22">
         <v>597</v>
       </c>
       <c r="G152">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.0747804898613404</v>
       </c>
       <c r="H152" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I152" s="23">
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="6:9" x14ac:dyDescent="0.35">
+    <row r="154" spans="6:9" x14ac:dyDescent="0.3">
       <c r="G154" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H154" s="18">
         <f>SUM(H53:H152)</f>
@@ -5303,11 +5510,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J6" r:id="rId1" location="tabbeamlines" xr:uid="{8FC2C706-F55C-4C3B-8C46-CF2B8E405EC9}"/>
-    <hyperlink ref="J7" r:id="rId2" xr:uid="{8C9BA247-7219-4ADF-B96F-E9A7D992C846}"/>
+    <hyperlink ref="B31" r:id="rId1" xr:uid="{E1590528-82E0-4DBE-8009-FC92B62B82CD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5319,33 +5525,33 @@
       <selection activeCell="D2" sqref="D2:E101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" t="s">
         <v>74</v>
       </c>
-      <c r="B1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5362,7 +5568,7 @@
         <v>2.304E-5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5379,7 +5585,7 @@
         <v>2.72E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5396,7 +5602,7 @@
         <v>3.5370000000000002E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5413,7 +5619,7 @@
         <v>3.6510000000000001E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5430,7 +5636,7 @@
         <v>3.5920000000000002E-5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5447,7 +5653,7 @@
         <v>3.5580000000000002E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5464,7 +5670,7 @@
         <v>3.4900000000000001E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5481,7 +5687,7 @@
         <v>3.362E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5498,7 +5704,7 @@
         <v>3.2709999999999997E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5515,7 +5721,7 @@
         <v>3.2289999999999997E-5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -5532,7 +5738,7 @@
         <v>3.1520000000000003E-5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -5549,7 +5755,7 @@
         <v>3.061E-5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -5566,7 +5772,7 @@
         <v>3.004E-5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -5583,7 +5789,7 @@
         <v>2.9349999999999999E-5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -5600,7 +5806,7 @@
         <v>2.845E-5</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -5617,7 +5823,7 @@
         <v>2.756E-5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -5634,7 +5840,7 @@
         <v>2.6910000000000002E-5</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -5651,7 +5857,7 @@
         <v>2.5510000000000001E-5</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -5668,7 +5874,7 @@
         <v>2.4769999999999998E-5</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -5685,7 +5891,7 @@
         <v>2.4090000000000001E-5</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -5702,7 +5908,7 @@
         <v>2.3059999999999999E-5</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -5719,7 +5925,7 @@
         <v>2.2310000000000002E-5</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -5736,7 +5942,7 @@
         <v>2.1339999999999999E-5</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -5753,7 +5959,7 @@
         <v>2.0550000000000001E-5</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -5770,7 +5976,7 @@
         <v>2.0129999999999999E-5</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -5787,7 +5993,7 @@
         <v>1.961E-5</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -5804,7 +6010,7 @@
         <v>1.912E-5</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -5821,7 +6027,7 @@
         <v>1.821E-5</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -5838,7 +6044,7 @@
         <v>1.7600000000000001E-5</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -5855,7 +6061,7 @@
         <v>1.734E-5</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -5872,7 +6078,7 @@
         <v>1.7099999999999999E-5</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -5889,7 +6095,7 @@
         <v>1.5860000000000001E-5</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -5906,7 +6112,7 @@
         <v>1.562E-5</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -5923,7 +6129,7 @@
         <v>1.507E-5</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -5940,7 +6146,7 @@
         <v>1.394E-5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -5957,7 +6163,7 @@
         <v>1.3390000000000001E-5</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -5974,7 +6180,7 @@
         <v>1.2840000000000001E-5</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -5991,7 +6197,7 @@
         <v>1.2469999999999999E-5</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -6008,7 +6214,7 @@
         <v>1.185E-5</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -6025,7 +6231,7 @@
         <v>1.1389999999999999E-5</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -6042,7 +6248,7 @@
         <v>1.076E-5</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -6059,7 +6265,7 @@
         <v>1.042E-5</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -6076,7 +6282,7 @@
         <v>1.031E-5</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -6093,7 +6299,7 @@
         <v>9.7189999999999996E-6</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -6110,7 +6316,7 @@
         <v>9.5750000000000007E-6</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -6127,7 +6333,7 @@
         <v>8.9940000000000006E-6</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -6144,7 +6350,7 @@
         <v>8.5939999999999994E-6</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -6161,7 +6367,7 @@
         <v>8.072E-6</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -6178,7 +6384,7 @@
         <v>7.6329999999999996E-6</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -6195,7 +6401,7 @@
         <v>7.3089999999999998E-6</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -6212,7 +6418,7 @@
         <v>6.9670000000000004E-6</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -6229,7 +6435,7 @@
         <v>6.5889999999999999E-6</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -6246,7 +6452,7 @@
         <v>6.3620000000000002E-6</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -6263,7 +6469,7 @@
         <v>6.127E-6</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -6280,7 +6486,7 @@
         <v>5.6169999999999998E-6</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -6297,7 +6503,7 @@
         <v>5.3619999999999997E-6</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -6314,7 +6520,7 @@
         <v>5.0019999999999997E-6</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -6331,7 +6537,7 @@
         <v>4.6489999999999999E-6</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -6348,7 +6554,7 @@
         <v>4.3599999999999998E-6</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -6365,7 +6571,7 @@
         <v>4.0960000000000003E-6</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -6382,7 +6588,7 @@
         <v>3.873E-6</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -6399,7 +6605,7 @@
         <v>3.5719999999999999E-6</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -6416,7 +6622,7 @@
         <v>3.3969999999999998E-6</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -6433,7 +6639,7 @@
         <v>3.1729999999999999E-6</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -6450,7 +6656,7 @@
         <v>2.999E-6</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -6467,7 +6673,7 @@
         <v>2.7219999999999999E-6</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -6484,7 +6690,7 @@
         <v>2.5450000000000002E-6</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -6501,7 +6707,7 @@
         <v>2.3300000000000001E-6</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -6518,7 +6724,7 @@
         <v>2.165E-6</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -6535,7 +6741,7 @@
         <v>1.9750000000000001E-6</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -6552,7 +6758,7 @@
         <v>1.7999999999999999E-6</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -6569,7 +6775,7 @@
         <v>1.637E-6</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -6586,7 +6792,7 @@
         <v>1.5260000000000001E-6</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -6603,7 +6809,7 @@
         <v>1.305E-6</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -6620,7 +6826,7 @@
         <v>1.2470000000000001E-6</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -6637,7 +6843,7 @@
         <v>1.1170000000000001E-6</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -6654,7 +6860,7 @@
         <v>9.906000000000001E-7</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -6671,7 +6877,7 @@
         <v>8.6450000000000005E-7</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -6688,7 +6894,7 @@
         <v>7.8899999999999998E-7</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -6705,7 +6911,7 @@
         <v>6.8260000000000004E-7</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -6722,7 +6928,7 @@
         <v>5.8670000000000003E-7</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -6739,7 +6945,7 @@
         <v>4.9149999999999997E-7</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -6756,7 +6962,7 @@
         <v>4.0579999999999999E-7</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -6773,7 +6979,7 @@
         <v>3.6810000000000002E-7</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -6790,7 +6996,7 @@
         <v>3.1749999999999998E-7</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -6807,7 +7013,7 @@
         <v>2.4579999999999999E-7</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -6824,7 +7030,7 @@
         <v>2.065E-7</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -6841,7 +7047,7 @@
         <v>1.5669999999999999E-7</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -6858,7 +7064,7 @@
         <v>1.189E-7</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -6875,7 +7081,7 @@
         <v>1.004E-7</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -6892,7 +7098,7 @@
         <v>6.758E-8</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -6909,7 +7115,7 @@
         <v>4.4549999999999999E-8</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -6926,7 +7132,7 @@
         <v>2.4920000000000001E-8</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -6943,7 +7149,7 @@
         <v>2.227E-8</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -6960,7 +7166,7 @@
         <v>9.8150000000000005E-9</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -6977,7 +7183,7 @@
         <v>6.418E-9</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -6994,7 +7200,7 @@
         <v>1.8880000000000001E-9</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -7011,7 +7217,7 @@
         <v>7.5499999999999998E-10</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -7028,7 +7234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
